--- a/biology/Zoologie/Bequia/Bequia.xlsx
+++ b/biology/Zoologie/Bequia/Bequia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bequia est la plus grande île des Grenadines dans les Caraïbes. Elle fait partie de Saint-Vincent-et-les-Grenadines
@@ -512,7 +524,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bequia est l'île la plus septentrionale de l'archipel antillais des Grenadines et fait partie de l'État de Saint-Vincent-et-les-Grenadines. Elle est entièrement baignée par la mer des Caraïbes.
 C'est une île étirée dans le sens Nord-Est - Sud-Ouest qui comporte quelques caps et baies dont l'une (Admiralty Bay) abrite le chef-lieu et unique village de l'île : Port-Elizabeth. Le Nord de l'île est moins urbanisé, plus escarpé et abrite un sanctuaire marin dédié aux tortues. Au Sud se trouvent les petites îles de Petite Niévès, Isle-à-Quatre et Pigeon. L'aéroport de l'île (code AITA : BQU) se trouve à l'extrême Sud, non loin du musée de la baleine.
@@ -545,7 +559,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premiers habitants de Bequia sont les Indiens Arawaks qui sont suivis par les Caraïbes.
 À la fin du XVIe siècle, les Indiens s'allient aux esclaves fugitifs (les « Caraïbes noirs ») pour repousser avec succès les colons anglais et français.
@@ -581,9 +597,11 @@
           <t>Pêche à la baleine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pécheurs de Béquia, soutenus par le gouvernement japonais[1], sont autorisés par la Commission baleinière internationale à tuer quatre baleines à bosse par an au titre du maintien d'une activité traditionnelle[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pécheurs de Béquia, soutenus par le gouvernement japonais, sont autorisés par la Commission baleinière internationale à tuer quatre baleines à bosse par an au titre du maintien d'une activité traditionnelle.
 </t>
         </is>
       </c>
